--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6012583-761B-4D69-ADD0-23662DF04BB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4615E2-7E35-4758-9D6B-04A5B532FB16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12924" yWindow="0" windowWidth="9696" windowHeight="12504" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -381,6 +381,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -721,18 +727,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="3" customWidth="1"/>
     <col min="4" max="7" width="4.77734375" style="3" customWidth="1"/>
@@ -771,135 +777,166 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
     </row>
-    <row r="2" spans="1:22" s="29" customFormat="1">
-      <c r="A2" s="25">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:22" s="29" customFormat="1">
+      <c r="A3" s="25">
         <v>26</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="6">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="6">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="6">
-        <v>277</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="6">
-        <v>189</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="6">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
         <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="6">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="6">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:22">
+      <c r="A10" s="6">
+        <v>134</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="6">
+        <v>118</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
+      <c r="A12" s="6">
+        <v>119</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:22">
+      <c r="A13" s="6">
+        <v>169</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:22">
+      <c r="A14" s="6">
+        <v>229</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:22">
+      <c r="A15" s="6">
+        <v>274</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:22">
+      <c r="A16" s="6">
+        <v>275</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:7" s="29" customFormat="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="13"/>
+    <row r="17" spans="1:7">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="29" customFormat="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="7"/>
@@ -914,6 +951,7 @@
     <row r="21" spans="1:7">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="7"/>
@@ -926,13 +964,14 @@
     <row r="24" spans="1:7">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7">
+      <c r="B26" s="7"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:7">
@@ -942,10 +981,9 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="F29" s="13"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="8"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7">
@@ -953,29 +991,39 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:7">
+      <c r="C32" s="8"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="2:6">
-      <c r="C33" s="8"/>
+    <row r="33" spans="1:6">
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="1:6">
       <c r="C34" s="8"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="1:6">
       <c r="C35" s="8"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="1:6">
+      <c r="C36" s="8"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="24"/>
+    <row r="37" spans="1:6">
+      <c r="F37" s="13"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6">
+        <f>SUM(A3:A38)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D2:DD1201">
+  <conditionalFormatting sqref="D3:DD1202">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -992,7 +1040,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1201">
+  <conditionalFormatting sqref="C3:C1202">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4615E2-7E35-4758-9D6B-04A5B532FB16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BBE5E-10E7-4EA3-9B64-9021243B0173}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12924" yWindow="0" windowWidth="9696" windowHeight="12504" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -381,10 +381,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,13 +724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -777,173 +774,186 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="29" customFormat="1">
-      <c r="A3" s="25">
+    <row r="2" spans="1:22" s="29" customFormat="1">
+      <c r="A2" s="25">
         <v>26</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="6">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="6">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="6">
-        <v>80</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="6">
-        <v>277</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="6">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="6">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="6">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="6">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="6">
-        <v>118</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2">
         <v>4</v>
       </c>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="6">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="6">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="L13" s="13"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="6">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="6">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="6">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" s="13" customFormat="1">
+      <c r="A17" s="30">
+        <v>219</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="29" customFormat="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
+        <v>220</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:7">
+      <c r="A19" s="6">
+        <v>55</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>45</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="E20" s="13"/>
@@ -951,7 +961,6 @@
     <row r="21" spans="1:7">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="7"/>
@@ -964,14 +973,13 @@
     <row r="24" spans="1:7">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="7"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:7">
@@ -981,9 +989,10 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="C29" s="8"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7">
+      <c r="C30" s="8"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7">
@@ -991,10 +1000,10 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="C32" s="8"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6">
+      <c r="C33" s="8"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6">
@@ -1006,24 +1015,20 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="C36" s="8"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="F37" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6">
-        <f>SUM(A3:A38)</f>
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="24"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6">
+        <f>SUM(A2:A37)</f>
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:DD1202">
+  <conditionalFormatting sqref="D2:DD1201">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1040,7 +1045,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C1202">
+  <conditionalFormatting sqref="C2:C1201">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AADFAE-61E9-46C9-8637-2FEDC9E3C7F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6550EF-6217-407D-BB3E-31184C94C0FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5028" yWindow="732" windowWidth="17184" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10272" yWindow="672" windowWidth="12648" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>one-pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>difficulty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>follow-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>remove-nth-node-from-end-of-list/</t>
   </si>
   <si>
@@ -69,6 +49,59 @@
   </si>
   <si>
     <t>distant-barcodes/</t>
+  </si>
+  <si>
+    <t>iterative: 3, recursive: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4: one time AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3: 1 or 2 minor mistakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2: right logic but cannot finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. wrong logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task-scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as 1054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>swap-nodes-in-pairs/</t>
+  </si>
+  <si>
+    <t>reorder-list/</t>
+  </si>
+  <si>
+    <t>reverse-nodes-in-k-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow up: one-pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 follow up, iterative: 2, recursive: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterative: 4, recursive: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -99,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,9 +159,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -130,12 +168,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -161,13 +211,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -447,88 +490,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1">
+      <c r="A3" s="7">
+        <v>206</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
+        <v>234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>1054</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>621</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>876</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>43682</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1">
+      <c r="A8" s="7">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1">
+      <c r="A9" s="7">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6">
+        <v>143</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3">
-        <v>206</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
-        <v>234</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
-        <v>1054</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -543,12 +660,15 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{CBC0A16B-E455-45BD-99D4-BCDFB57AE68C}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{2DF18CFD-2E44-4373-A3F9-D29A3B317562}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{A681ED32-7F47-4155-ADF3-082EF27F5CB9}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/distant-barcodes/" xr:uid="{18F49625-C31C-4CDE-BEE0-56A957CF0047}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{CBC0A16B-E455-45BD-99D4-BCDFB57AE68C}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{2DF18CFD-2E44-4373-A3F9-D29A3B317562}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{A681ED32-7F47-4155-ADF3-082EF27F5CB9}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/distant-barcodes/" xr:uid="{18F49625-C31C-4CDE-BEE0-56A957CF0047}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{B74F2A19-FEC5-464D-9C64-798AC200C4D1}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{845BC1D3-0639-4C24-857E-A10E06B0C059}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://leetcode.com/problems/reorder-list/" xr:uid="{39657BCC-7C1E-474D-8FE9-4077E674836B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6550EF-6217-407D-BB3E-31184C94C0FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29447AB0-B770-49D4-8D17-B35FC69FEB1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10272" yWindow="672" windowWidth="12648" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +107,18 @@
   <si>
     <t>iterative: 4, recursive: 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>snapshot-array/</t>
   </si>
 </sst>
 </file>
@@ -490,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -641,6 +658,38 @@
       </c>
       <c r="C10" s="6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
+        <v>142</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>1146</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -667,8 +716,12 @@
     <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{B74F2A19-FEC5-464D-9C64-798AC200C4D1}"/>
     <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{845BC1D3-0639-4C24-857E-A10E06B0C059}"/>
     <hyperlink ref="B10" r:id="rId7" display="https://leetcode.com/problems/reorder-list/" xr:uid="{39657BCC-7C1E-474D-8FE9-4077E674836B}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{5BAA3990-4BC9-4F08-BAF5-91F7821E14B8}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{23C9E5D0-F501-4D0A-8BFB-4039A90792CE}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{E3B61E24-CF0F-4033-B225-218FC02653C4}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://leetcode.com/problems/snapshot-array/" xr:uid="{5C25D712-9055-489B-93B2-F496AF1B499A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29447AB0-B770-49D4-8D17-B35FC69FEB1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D107B7BE-3363-426F-8FA9-62ED89A83A06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="672" windowWidth="12648" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="12648" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,18 +94,10 @@
     <t>reorder-list/</t>
   </si>
   <si>
-    <t>reverse-nodes-in-k-group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>follow up: one-pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24 follow up, iterative: 2, recursive: 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iterative: 4, recursive: 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,13 +112,82 @@
   </si>
   <si>
     <t>snapshot-array/</t>
+  </si>
+  <si>
+    <t>sort-list/</t>
+  </si>
+  <si>
+    <t>add-two-numbers/</t>
+  </si>
+  <si>
+    <t>add-two-numbers-ii/</t>
+  </si>
+  <si>
+    <t>remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>minimum-window-substring/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">priorityqueue: 4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mergesort: 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not the best way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next challenges: 30, 239, 632, 209, 567, minimum-window-subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse-linked-list-ii/</t>
+  </si>
+  <si>
+    <t>reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>design-linked-list/</t>
+  </si>
+  <si>
+    <t>merge-intervals/</t>
+  </si>
+  <si>
+    <t>interval-list-intersections/</t>
+  </si>
+  <si>
+    <t>24 follow up, recursive: 4, iterative: 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size++, size--, valid index range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert-interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how to track position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +210,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,27 +250,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -507,20 +586,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -535,161 +615,299 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1">
+      <c r="A3" s="5">
+        <v>206</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>234</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>1054</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>621</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>876</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1">
+      <c r="A8" s="5">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1">
-      <c r="A3" s="7">
-        <v>206</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>143</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>160</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>142</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>1146</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11">
+        <v>148</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6">
-        <v>234</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>445</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="7" customFormat="1">
+      <c r="A17" s="5">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>1054</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="7" customFormat="1">
+      <c r="A18" s="5">
+        <v>76</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6">
-        <v>621</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
-        <v>876</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1">
-      <c r="A8" s="7">
-        <v>24</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1">
-      <c r="A9" s="7">
+    <row r="20" spans="1:4" s="7" customFormat="1">
+      <c r="A20" s="5">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6">
-        <v>143</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>707</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>986</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>160</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>142</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>1146</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -715,13 +933,23 @@
     <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/distant-barcodes/" xr:uid="{18F49625-C31C-4CDE-BEE0-56A957CF0047}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{B74F2A19-FEC5-464D-9C64-798AC200C4D1}"/>
     <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{845BC1D3-0639-4C24-857E-A10E06B0C059}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://leetcode.com/problems/reorder-list/" xr:uid="{39657BCC-7C1E-474D-8FE9-4077E674836B}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{5BAA3990-4BC9-4F08-BAF5-91F7821E14B8}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{23C9E5D0-F501-4D0A-8BFB-4039A90792CE}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{E3B61E24-CF0F-4033-B225-218FC02653C4}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://leetcode.com/problems/snapshot-array/" xr:uid="{5C25D712-9055-489B-93B2-F496AF1B499A}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.com/problems/reorder-list/" xr:uid="{39657BCC-7C1E-474D-8FE9-4077E674836B}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{5BAA3990-4BC9-4F08-BAF5-91F7821E14B8}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{23C9E5D0-F501-4D0A-8BFB-4039A90792CE}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{E3B61E24-CF0F-4033-B225-218FC02653C4}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode.com/problems/snapshot-array/" xr:uid="{5C25D712-9055-489B-93B2-F496AF1B499A}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode.com/problems/sort-list/" xr:uid="{CB470796-5266-49C1-B0B8-6DB1B528BF51}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{9A7FB290-E4A9-4646-BB86-DEA953597BE4}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://leetcode.com/problems/add-two-numbers-ii/" xr:uid="{1ACFF0C7-7BD2-48CB-B9E9-2541620DA114}"/>
+    <hyperlink ref="B17" r:id="rId15" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{9AF92326-D683-4D1E-A644-DF0DC83DAF3F}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{C7533A62-81F8-4E1D-ADEF-6F6522E8625B}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://leetcode.com/problems/reverse-linked-list-ii/" xr:uid="{929BA8B8-5639-480E-9786-A2E65686C29B}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" xr:uid="{5CB30834-31FF-45B6-82D5-1F0368423350}"/>
+    <hyperlink ref="B21" r:id="rId19" display="https://leetcode.com/problems/design-linked-list/" xr:uid="{46B1224C-AEBD-486E-9902-2E2803AD6C71}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{565058E7-1D52-4E1A-B880-599821C38A48}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://leetcode.com/problems/interval-list-intersections/" xr:uid="{E3479657-8AEE-4FA1-BEC5-8517154A5062}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D107B7BE-3363-426F-8FA9-62ED89A83A06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5574667-54E0-41B5-A91B-E58EA12917FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="12648" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="228" windowWidth="12648" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +136,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>mergesort: 2</t>
@@ -180,6 +180,47 @@
   </si>
   <si>
     <t>how to track position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate-list/</t>
+  </si>
+  <si>
+    <t>lru-cache/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>design-hashmap/</t>
+  </si>
+  <si>
+    <t>restore-ip-addresses/</t>
+  </si>
+  <si>
+    <t>unique-email-addresses/</t>
+  </si>
+  <si>
+    <t>split-linked-list-in-parts/</t>
+  </si>
+  <si>
+    <t>flatten-a-multilevel-doubly-linked-list/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>validate-ip-address/</t>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkedlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +255,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,6 +318,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -586,333 +629,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="1.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>206</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>234</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>1054</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>621</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>876</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <v>24</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>143</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>160</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>142</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>1146</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>148</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>445</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="7" customFormat="1">
-      <c r="A17" s="5">
+    <row r="17" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
         <v>82</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1">
-      <c r="A18" s="5">
+    <row r="18" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>76</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>92</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1">
-      <c r="A20" s="5">
+    <row r="20" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>707</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>57</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>986</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>61</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>146</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>706</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>93</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>929</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>725</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>430</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>23</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>468</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -927,29 +1060,38 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{CBC0A16B-E455-45BD-99D4-BCDFB57AE68C}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{2DF18CFD-2E44-4373-A3F9-D29A3B317562}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{A681ED32-7F47-4155-ADF3-082EF27F5CB9}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/distant-barcodes/" xr:uid="{18F49625-C31C-4CDE-BEE0-56A957CF0047}"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{B74F2A19-FEC5-464D-9C64-798AC200C4D1}"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{845BC1D3-0639-4C24-857E-A10E06B0C059}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.com/problems/reorder-list/" xr:uid="{39657BCC-7C1E-474D-8FE9-4077E674836B}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{5BAA3990-4BC9-4F08-BAF5-91F7821E14B8}"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{23C9E5D0-F501-4D0A-8BFB-4039A90792CE}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{E3B61E24-CF0F-4033-B225-218FC02653C4}"/>
-    <hyperlink ref="B13" r:id="rId11" display="https://leetcode.com/problems/snapshot-array/" xr:uid="{5C25D712-9055-489B-93B2-F496AF1B499A}"/>
-    <hyperlink ref="B14" r:id="rId12" display="https://leetcode.com/problems/sort-list/" xr:uid="{CB470796-5266-49C1-B0B8-6DB1B528BF51}"/>
-    <hyperlink ref="B15" r:id="rId13" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{9A7FB290-E4A9-4646-BB86-DEA953597BE4}"/>
-    <hyperlink ref="B16" r:id="rId14" display="https://leetcode.com/problems/add-two-numbers-ii/" xr:uid="{1ACFF0C7-7BD2-48CB-B9E9-2541620DA114}"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{9AF92326-D683-4D1E-A644-DF0DC83DAF3F}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{C7533A62-81F8-4E1D-ADEF-6F6522E8625B}"/>
-    <hyperlink ref="B19" r:id="rId17" display="https://leetcode.com/problems/reverse-linked-list-ii/" xr:uid="{929BA8B8-5639-480E-9786-A2E65686C29B}"/>
-    <hyperlink ref="B20" r:id="rId18" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" xr:uid="{5CB30834-31FF-45B6-82D5-1F0368423350}"/>
-    <hyperlink ref="B21" r:id="rId19" display="https://leetcode.com/problems/design-linked-list/" xr:uid="{46B1224C-AEBD-486E-9902-2E2803AD6C71}"/>
-    <hyperlink ref="B22" r:id="rId20" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{565058E7-1D52-4E1A-B880-599821C38A48}"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://leetcode.com/problems/interval-list-intersections/" xr:uid="{E3479657-8AEE-4FA1-BEC5-8517154A5062}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{CBC0A16B-E455-45BD-99D4-BCDFB57AE68C}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{2DF18CFD-2E44-4373-A3F9-D29A3B317562}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{A681ED32-7F47-4155-ADF3-082EF27F5CB9}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/distant-barcodes/" xr:uid="{18F49625-C31C-4CDE-BEE0-56A957CF0047}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{B74F2A19-FEC5-464D-9C64-798AC200C4D1}"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{845BC1D3-0639-4C24-857E-A10E06B0C059}"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://leetcode.com/problems/reorder-list/" xr:uid="{39657BCC-7C1E-474D-8FE9-4077E674836B}"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{5BAA3990-4BC9-4F08-BAF5-91F7821E14B8}"/>
+    <hyperlink ref="C11" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{23C9E5D0-F501-4D0A-8BFB-4039A90792CE}"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{E3B61E24-CF0F-4033-B225-218FC02653C4}"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://leetcode.com/problems/snapshot-array/" xr:uid="{5C25D712-9055-489B-93B2-F496AF1B499A}"/>
+    <hyperlink ref="C14" r:id="rId12" display="https://leetcode.com/problems/sort-list/" xr:uid="{CB470796-5266-49C1-B0B8-6DB1B528BF51}"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{9A7FB290-E4A9-4646-BB86-DEA953597BE4}"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://leetcode.com/problems/add-two-numbers-ii/" xr:uid="{1ACFF0C7-7BD2-48CB-B9E9-2541620DA114}"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{9AF92326-D683-4D1E-A644-DF0DC83DAF3F}"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{C7533A62-81F8-4E1D-ADEF-6F6522E8625B}"/>
+    <hyperlink ref="C19" r:id="rId17" display="https://leetcode.com/problems/reverse-linked-list-ii/" xr:uid="{929BA8B8-5639-480E-9786-A2E65686C29B}"/>
+    <hyperlink ref="C20" r:id="rId18" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" xr:uid="{5CB30834-31FF-45B6-82D5-1F0368423350}"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://leetcode.com/problems/design-linked-list/" xr:uid="{46B1224C-AEBD-486E-9902-2E2803AD6C71}"/>
+    <hyperlink ref="C22" r:id="rId20" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{565058E7-1D52-4E1A-B880-599821C38A48}"/>
+    <hyperlink ref="C24" r:id="rId21" display="https://leetcode.com/problems/interval-list-intersections/" xr:uid="{E3479657-8AEE-4FA1-BEC5-8517154A5062}"/>
+    <hyperlink ref="C25" r:id="rId22" display="https://leetcode.com/problems/rotate-list/" xr:uid="{45A84CE5-8F66-4408-BAF3-4A6E05299456}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{0E0FC069-8C2D-4C8A-AFD9-F7F50DC006C0}"/>
+    <hyperlink ref="C27" r:id="rId24" display="https://leetcode.com/problems/design-hashmap/" xr:uid="{69E5D308-BFB1-42BE-80E9-0FED1A4E4FB7}"/>
+    <hyperlink ref="C28" r:id="rId25" display="https://leetcode.com/problems/restore-ip-addresses/" xr:uid="{F03732EC-BE2D-4AF7-94E8-8A7AB6BBFAAA}"/>
+    <hyperlink ref="C29" r:id="rId26" display="https://leetcode.com/problems/unique-email-addresses/" xr:uid="{C2E41CE6-CF04-4F15-8E9F-961EC7A91CC6}"/>
+    <hyperlink ref="C30" r:id="rId27" display="https://leetcode.com/problems/split-linked-list-in-parts/" xr:uid="{D27C5098-BCEB-4192-BAF2-0DC769ACFCE0}"/>
+    <hyperlink ref="C31" r:id="rId28" display="https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/" xr:uid="{EC47A0AD-C77A-42E3-A8BD-F390BDE6909C}"/>
+    <hyperlink ref="C32" r:id="rId29" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{16D53C5E-1289-4256-9B9E-B96A10188ED0}"/>
+    <hyperlink ref="C33" r:id="rId30" display="https://leetcode.com/problems/validate-ip-address/" xr:uid="{E1F78616-3F27-44A9-9ACC-9E514D37348B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5574667-54E0-41B5-A91B-E58EA12917FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FCF5C-4AE4-4ACD-98F5-1EA2A3D2DBF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="228" windowWidth="12648" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6012" yWindow="864" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +222,14 @@
   </si>
   <si>
     <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityqueue: 4, mergesort: 3 (similar: 148)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,12 +328,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -633,7 +671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -989,6 +1027,9 @@
       <c r="C27" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -997,6 +1038,9 @@
       <c r="C28" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -1005,6 +1049,9 @@
       <c r="C29" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -1013,6 +1060,9 @@
       <c r="C30" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -1021,24 +1071,36 @@
       <c r="C31" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
         <v>23</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>468</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
@@ -1046,16 +1108,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1094,4 +1156,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C448EF-5F32-4448-9261-1A2832E99CBC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>706</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{451445B0-8593-425E-BADC-CA4414FBFEEA}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/design-hashmap/" xr:uid="{DE935C4A-9F6E-42DB-883F-B6A96AE5ADB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FCF5C-4AE4-4ACD-98F5-1EA2A3D2DBF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7A6D1D-85D2-4982-8583-06F84D8725FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6012" yWindow="864" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9816" yWindow="684" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,77 @@
   <si>
     <t>priorityqueue: 4, mergesort: 3 (similar: 148)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaf-similar-trees/</t>
+  </si>
+  <si>
+    <t>binary-tree-inorder-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increasing-order-search-tree/</t>
+  </si>
+  <si>
+    <t>flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t>lowest-common-ancestor-of-deepest-leaves/</t>
+  </si>
+  <si>
+    <t>construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>construct-binary-tree-from-preorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>construct-binary-search-tree-from-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>binary-search-tree-iterator/</t>
+  </si>
+  <si>
+    <t>flip-equivalent-binary-trees/</t>
+  </si>
+  <si>
+    <t>binary-tree-preorder-traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not so familiar with the best solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposite of preorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inorder traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursion: 4, prev node and cur right: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details, corner cases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete-node-in-a-bst/</t>
+  </si>
+  <si>
+    <t>binary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>vertical-order-traversal-of-a-binary-tree/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys-and-rooms/</t>
   </si>
 </sst>
 </file>
@@ -301,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,12 +400,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -667,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>468</v>
       </c>
@@ -1100,24 +1230,206 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B34" s="2">
+        <v>872</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>94</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>144</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>145</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>897</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>114</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>1123</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>105</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>889</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>1008</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>173</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>951</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>450</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>102</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>987</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>841</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D41 D43:D1048576">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1152,9 +1464,24 @@
     <hyperlink ref="C31" r:id="rId28" display="https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/" xr:uid="{EC47A0AD-C77A-42E3-A8BD-F390BDE6909C}"/>
     <hyperlink ref="C32" r:id="rId29" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{16D53C5E-1289-4256-9B9E-B96A10188ED0}"/>
     <hyperlink ref="C33" r:id="rId30" display="https://leetcode.com/problems/validate-ip-address/" xr:uid="{E1F78616-3F27-44A9-9ACC-9E514D37348B}"/>
+    <hyperlink ref="C34" r:id="rId31" display="https://leetcode.com/problems/leaf-similar-trees/" xr:uid="{EE46102B-2022-4515-9BF9-6D8CB96266E3}"/>
+    <hyperlink ref="C35" r:id="rId32" display="https://leetcode.com/problems/binary-tree-inorder-traversal/" xr:uid="{3BECD58E-9C68-49B6-8D59-C5B62E944AC4}"/>
+    <hyperlink ref="C38" r:id="rId33" display="https://leetcode.com/problems/increasing-order-search-tree/" xr:uid="{87BAE8BF-D193-436E-9B85-1176BE06DDA0}"/>
+    <hyperlink ref="C39" r:id="rId34" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/" xr:uid="{47B50099-C180-48EF-9A5C-5C6946FEB71E}"/>
+    <hyperlink ref="C40" r:id="rId35" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves/" xr:uid="{0EF80C08-DE5A-478A-B1B0-DD7C592978BD}"/>
+    <hyperlink ref="C41" r:id="rId36" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{692CFD31-40D7-4B0C-BAC3-23F0E4E81903}"/>
+    <hyperlink ref="C42" r:id="rId37" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/" xr:uid="{48990E4A-86B2-4A72-9E7B-D227AEB7CFCA}"/>
+    <hyperlink ref="C43" r:id="rId38" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal/" xr:uid="{EA8FF4A5-0408-4332-B513-2BBC111D2316}"/>
+    <hyperlink ref="C44" r:id="rId39" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{D3063753-1049-4AFD-821A-E84675CAEE70}"/>
+    <hyperlink ref="C45" r:id="rId40" display="https://leetcode.com/problems/flip-equivalent-binary-trees/" xr:uid="{B147ACCF-91D4-44C2-BD22-BD1455D0700D}"/>
+    <hyperlink ref="C46" r:id="rId41" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{92B6941F-C031-41D0-AE6B-4026436618AF}"/>
+    <hyperlink ref="C37" r:id="rId42" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{3CB8FE85-4B76-4079-9A73-D160E0854CC0}"/>
+    <hyperlink ref="C47" r:id="rId43" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{94DB0563-C5CB-43C9-803B-AA2F40AED1CF}"/>
+    <hyperlink ref="C48" r:id="rId44" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/" xr:uid="{FF7683B1-09F3-4403-B6E5-34E31CD4472A}"/>
+    <hyperlink ref="C49" r:id="rId45" display="https://leetcode.com/problems/keys-and-rooms/" xr:uid="{709EFF24-842F-4C75-B7FE-B7EFAD951271}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -1201,16 +1528,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7A6D1D-85D2-4982-8583-06F84D8725FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8796A1-C3D0-4631-9297-8300608F51A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9816" yWindow="684" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,25 @@
   </si>
   <si>
     <t>keys-and-rooms/</t>
+  </si>
+  <si>
+    <t>maximum-width-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>path-sum-ii/</t>
+  </si>
+  <si>
+    <t>friend-circles/</t>
+  </si>
+  <si>
+    <t>number-of-islands/</t>
+  </si>
+  <si>
+    <t>bfs: 4, dfs: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -372,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,63 +399,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -797,22 +778,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="39.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -830,39 +811,39 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="2">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
         <v>206</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -870,13 +851,13 @@
       <c r="B4" s="2">
         <v>234</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -884,13 +865,13 @@
       <c r="B5" s="2">
         <v>1054</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -898,13 +879,13 @@
       <c r="B6" s="2">
         <v>621</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -912,24 +893,24 @@
       <c r="B7" s="2">
         <v>876</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -937,7 +918,7 @@
       <c r="B9" s="2">
         <v>143</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2">
@@ -948,7 +929,7 @@
       <c r="B10" s="2">
         <v>160</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2">
@@ -959,7 +940,7 @@
       <c r="B11" s="2">
         <v>142</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2">
@@ -970,7 +951,7 @@
       <c r="B12" s="2">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2">
@@ -981,7 +962,7 @@
       <c r="B13" s="2">
         <v>1146</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2">
@@ -989,16 +970,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>148</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1006,7 +987,7 @@
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2">
@@ -1017,38 +998,38 @@
       <c r="B16" s="2">
         <v>445</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+    <row r="17" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
         <v>82</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+    <row r="18" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
         <v>76</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1056,24 +1037,24 @@
       <c r="B19" s="2">
         <v>92</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+    <row r="20" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
         <v>25</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1081,13 +1062,13 @@
       <c r="B21" s="2">
         <v>707</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1095,25 +1076,25 @@
       <c r="B22" s="2">
         <v>56</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1121,7 +1102,7 @@
       <c r="B24" s="2">
         <v>986</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2">
@@ -1132,7 +1113,7 @@
       <c r="B25" s="2">
         <v>61</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="2">
@@ -1143,7 +1124,7 @@
       <c r="B26" s="2">
         <v>146</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="2">
@@ -1154,7 +1135,7 @@
       <c r="B27" s="2">
         <v>706</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="2">
@@ -1165,7 +1146,7 @@
       <c r="B28" s="2">
         <v>93</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="2">
@@ -1176,7 +1157,7 @@
       <c r="B29" s="2">
         <v>929</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="2">
@@ -1187,7 +1168,7 @@
       <c r="B30" s="2">
         <v>725</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="2">
@@ -1198,24 +1179,24 @@
       <c r="B31" s="2">
         <v>430</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
+    <row r="32" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
         <v>23</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>3</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1223,7 +1204,7 @@
       <c r="B33" s="2">
         <v>468</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="2">
@@ -1231,55 +1212,55 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>872</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
+    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
         <v>94</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
         <v>144</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
+    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
         <v>145</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1287,27 +1268,27 @@
       <c r="B38" s="2">
         <v>897</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
         <v>114</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>3</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1315,173 +1296,190 @@
       <c r="B40" s="2">
         <v>1123</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>105</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>889</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>1008</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="10" t="s">
         <v>61</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>173</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>62</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>951</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
         <v>450</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>70</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>102</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="10" t="s">
         <v>72</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>987</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>841</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="10" t="s">
         <v>74</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>662</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>103</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>113</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>547</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>200</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D41 D43:D1048576">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{CBC0A16B-E455-45BD-99D4-BCDFB57AE68C}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{2DF18CFD-2E44-4373-A3F9-D29A3B317562}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{A681ED32-7F47-4155-ADF3-082EF27F5CB9}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/distant-barcodes/" xr:uid="{18F49625-C31C-4CDE-BEE0-56A957CF0047}"/>
-    <hyperlink ref="C7" r:id="rId5" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{B74F2A19-FEC5-464D-9C64-798AC200C4D1}"/>
-    <hyperlink ref="C8" r:id="rId6" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{845BC1D3-0639-4C24-857E-A10E06B0C059}"/>
-    <hyperlink ref="C9" r:id="rId7" display="https://leetcode.com/problems/reorder-list/" xr:uid="{39657BCC-7C1E-474D-8FE9-4077E674836B}"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{5BAA3990-4BC9-4F08-BAF5-91F7821E14B8}"/>
-    <hyperlink ref="C11" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{23C9E5D0-F501-4D0A-8BFB-4039A90792CE}"/>
-    <hyperlink ref="C12" r:id="rId10" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{E3B61E24-CF0F-4033-B225-218FC02653C4}"/>
-    <hyperlink ref="C13" r:id="rId11" display="https://leetcode.com/problems/snapshot-array/" xr:uid="{5C25D712-9055-489B-93B2-F496AF1B499A}"/>
-    <hyperlink ref="C14" r:id="rId12" display="https://leetcode.com/problems/sort-list/" xr:uid="{CB470796-5266-49C1-B0B8-6DB1B528BF51}"/>
-    <hyperlink ref="C15" r:id="rId13" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{9A7FB290-E4A9-4646-BB86-DEA953597BE4}"/>
-    <hyperlink ref="C16" r:id="rId14" display="https://leetcode.com/problems/add-two-numbers-ii/" xr:uid="{1ACFF0C7-7BD2-48CB-B9E9-2541620DA114}"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{9AF92326-D683-4D1E-A644-DF0DC83DAF3F}"/>
-    <hyperlink ref="C18" r:id="rId16" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{C7533A62-81F8-4E1D-ADEF-6F6522E8625B}"/>
-    <hyperlink ref="C19" r:id="rId17" display="https://leetcode.com/problems/reverse-linked-list-ii/" xr:uid="{929BA8B8-5639-480E-9786-A2E65686C29B}"/>
-    <hyperlink ref="C20" r:id="rId18" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" xr:uid="{5CB30834-31FF-45B6-82D5-1F0368423350}"/>
-    <hyperlink ref="C21" r:id="rId19" display="https://leetcode.com/problems/design-linked-list/" xr:uid="{46B1224C-AEBD-486E-9902-2E2803AD6C71}"/>
-    <hyperlink ref="C22" r:id="rId20" display="https://leetcode.com/problems/merge-intervals/" xr:uid="{565058E7-1D52-4E1A-B880-599821C38A48}"/>
-    <hyperlink ref="C24" r:id="rId21" display="https://leetcode.com/problems/interval-list-intersections/" xr:uid="{E3479657-8AEE-4FA1-BEC5-8517154A5062}"/>
-    <hyperlink ref="C25" r:id="rId22" display="https://leetcode.com/problems/rotate-list/" xr:uid="{45A84CE5-8F66-4408-BAF3-4A6E05299456}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{0E0FC069-8C2D-4C8A-AFD9-F7F50DC006C0}"/>
-    <hyperlink ref="C27" r:id="rId24" display="https://leetcode.com/problems/design-hashmap/" xr:uid="{69E5D308-BFB1-42BE-80E9-0FED1A4E4FB7}"/>
-    <hyperlink ref="C28" r:id="rId25" display="https://leetcode.com/problems/restore-ip-addresses/" xr:uid="{F03732EC-BE2D-4AF7-94E8-8A7AB6BBFAAA}"/>
-    <hyperlink ref="C29" r:id="rId26" display="https://leetcode.com/problems/unique-email-addresses/" xr:uid="{C2E41CE6-CF04-4F15-8E9F-961EC7A91CC6}"/>
-    <hyperlink ref="C30" r:id="rId27" display="https://leetcode.com/problems/split-linked-list-in-parts/" xr:uid="{D27C5098-BCEB-4192-BAF2-0DC769ACFCE0}"/>
-    <hyperlink ref="C31" r:id="rId28" display="https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/" xr:uid="{EC47A0AD-C77A-42E3-A8BD-F390BDE6909C}"/>
-    <hyperlink ref="C32" r:id="rId29" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{16D53C5E-1289-4256-9B9E-B96A10188ED0}"/>
-    <hyperlink ref="C33" r:id="rId30" display="https://leetcode.com/problems/validate-ip-address/" xr:uid="{E1F78616-3F27-44A9-9ACC-9E514D37348B}"/>
-    <hyperlink ref="C34" r:id="rId31" display="https://leetcode.com/problems/leaf-similar-trees/" xr:uid="{EE46102B-2022-4515-9BF9-6D8CB96266E3}"/>
-    <hyperlink ref="C35" r:id="rId32" display="https://leetcode.com/problems/binary-tree-inorder-traversal/" xr:uid="{3BECD58E-9C68-49B6-8D59-C5B62E944AC4}"/>
-    <hyperlink ref="C38" r:id="rId33" display="https://leetcode.com/problems/increasing-order-search-tree/" xr:uid="{87BAE8BF-D193-436E-9B85-1176BE06DDA0}"/>
-    <hyperlink ref="C39" r:id="rId34" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/" xr:uid="{47B50099-C180-48EF-9A5C-5C6946FEB71E}"/>
-    <hyperlink ref="C40" r:id="rId35" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves/" xr:uid="{0EF80C08-DE5A-478A-B1B0-DD7C592978BD}"/>
-    <hyperlink ref="C41" r:id="rId36" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{692CFD31-40D7-4B0C-BAC3-23F0E4E81903}"/>
-    <hyperlink ref="C42" r:id="rId37" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/" xr:uid="{48990E4A-86B2-4A72-9E7B-D227AEB7CFCA}"/>
-    <hyperlink ref="C43" r:id="rId38" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal/" xr:uid="{EA8FF4A5-0408-4332-B513-2BBC111D2316}"/>
-    <hyperlink ref="C44" r:id="rId39" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{D3063753-1049-4AFD-821A-E84675CAEE70}"/>
-    <hyperlink ref="C45" r:id="rId40" display="https://leetcode.com/problems/flip-equivalent-binary-trees/" xr:uid="{B147ACCF-91D4-44C2-BD22-BD1455D0700D}"/>
-    <hyperlink ref="C46" r:id="rId41" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{92B6941F-C031-41D0-AE6B-4026436618AF}"/>
-    <hyperlink ref="C37" r:id="rId42" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{3CB8FE85-4B76-4079-9A73-D160E0854CC0}"/>
-    <hyperlink ref="C47" r:id="rId43" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{94DB0563-C5CB-43C9-803B-AA2F40AED1CF}"/>
-    <hyperlink ref="C48" r:id="rId44" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/" xr:uid="{FF7683B1-09F3-4403-B6E5-34E31CD4472A}"/>
-    <hyperlink ref="C49" r:id="rId45" display="https://leetcode.com/problems/keys-and-rooms/" xr:uid="{709EFF24-842F-4C75-B7FE-B7EFAD951271}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1507,7 +1505,7 @@
       <c r="A2" s="2">
         <v>146</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="2">
@@ -1518,7 +1516,7 @@
       <c r="A3" s="2">
         <v>706</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="2">
@@ -1528,16 +1526,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8796A1-C3D0-4631-9297-8300608F51A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76A99C-0FCC-4263-89E3-03791BEBF881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9816" yWindow="684" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,46 @@
   </si>
   <si>
     <t>bfs: 4, dfs: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count-complete-tree-nodes/</t>
+  </si>
+  <si>
+    <t>lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>recover-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>unique-letter-string/</t>
+  </si>
+  <si>
+    <t>sum-root-to-leaf-numbers/</t>
+  </si>
+  <si>
+    <t>serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>distribute-coins-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>number-of-digit-one/</t>
+  </si>
+  <si>
+    <t>digit-count-in-range/</t>
+  </si>
+  <si>
+    <t>sum-of-distances-in-tree/</t>
+  </si>
+  <si>
+    <t>binary-tree-cameras/</t>
+  </si>
+  <si>
+    <t>longest-substring-with-at-most-k-distinct-characters/</t>
+  </si>
+  <si>
+    <t>return criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,11 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1415,6 +1455,9 @@
       <c r="C50" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
@@ -1423,6 +1466,9 @@
       <c r="C51" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
@@ -1431,6 +1477,9 @@
       <c r="C52" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
@@ -1439,6 +1488,9 @@
       <c r="C53" s="10" t="s">
         <v>78</v>
       </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
@@ -1446,6 +1498,108 @@
       </c>
       <c r="C54" s="10" t="s">
         <v>79</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>222</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>236</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>99</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>828</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>129</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>297</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>979</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>233</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>1067</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>834</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>968</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>340</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76A99C-0FCC-4263-89E3-03791BEBF881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4DC4A2-7457-477E-9839-E10E5BC7434C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9816" yWindow="684" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,14 @@
   </si>
   <si>
     <t>return criteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how to prune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morris traversal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,8 +829,8 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1513,6 +1521,9 @@
       <c r="C55" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
@@ -1521,6 +1532,12 @@
       <c r="C56" s="10" t="s">
         <v>82</v>
       </c>
+      <c r="D56" s="2">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
@@ -1529,6 +1546,12 @@
       <c r="C57" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
@@ -1537,6 +1560,9 @@
       <c r="C58" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
@@ -1544,6 +1570,9 @@
       </c>
       <c r="C59" s="10" t="s">
         <v>85</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4DC4A2-7457-477E-9839-E10E5BC7434C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40253D9B-37CB-482F-86E4-7868C4F67B3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9816" yWindow="684" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1140" yWindow="372" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,12 +370,24 @@
     <t>morris traversal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>preorder, level order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT UNDERSTAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,14 +400,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,11 +439,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,13 +460,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -830,7 +831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -865,7 +866,7 @@
       <c r="B2" s="2">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -882,7 +883,7 @@
       <c r="B3" s="4">
         <v>206</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4">
@@ -899,7 +900,7 @@
       <c r="B4" s="2">
         <v>234</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2">
@@ -913,7 +914,7 @@
       <c r="B5" s="2">
         <v>1054</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2">
@@ -941,7 +942,7 @@
       <c r="B7" s="2">
         <v>876</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2">
@@ -952,7 +953,7 @@
       <c r="B8" s="4">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4">
@@ -966,7 +967,7 @@
       <c r="B9" s="2">
         <v>143</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2">
@@ -977,7 +978,7 @@
       <c r="B10" s="2">
         <v>160</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2">
@@ -988,7 +989,7 @@
       <c r="B11" s="2">
         <v>142</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2">
@@ -999,7 +1000,7 @@
       <c r="B12" s="2">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2">
@@ -1010,7 +1011,7 @@
       <c r="B13" s="2">
         <v>1146</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2">
@@ -1021,7 +1022,7 @@
       <c r="B14" s="7">
         <v>148</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2">
@@ -1035,7 +1036,7 @@
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2">
@@ -1046,7 +1047,7 @@
       <c r="B16" s="2">
         <v>445</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2">
@@ -1057,7 +1058,7 @@
       <c r="B17" s="4">
         <v>82</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="4">
@@ -1071,7 +1072,7 @@
       <c r="B18" s="4">
         <v>76</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="4">
@@ -1085,7 +1086,7 @@
       <c r="B19" s="2">
         <v>92</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2">
@@ -1096,7 +1097,7 @@
       <c r="B20" s="4">
         <v>25</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="4">
@@ -1110,7 +1111,7 @@
       <c r="B21" s="2">
         <v>707</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2">
@@ -1124,7 +1125,7 @@
       <c r="B22" s="2">
         <v>56</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2">
@@ -1150,7 +1151,7 @@
       <c r="B24" s="2">
         <v>986</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2">
@@ -1161,7 +1162,7 @@
       <c r="B25" s="2">
         <v>61</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="2">
@@ -1172,7 +1173,7 @@
       <c r="B26" s="2">
         <v>146</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="2">
@@ -1183,7 +1184,7 @@
       <c r="B27" s="2">
         <v>706</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="2">
@@ -1194,7 +1195,7 @@
       <c r="B28" s="2">
         <v>93</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="2">
@@ -1205,7 +1206,7 @@
       <c r="B29" s="2">
         <v>929</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="2">
@@ -1216,7 +1217,7 @@
       <c r="B30" s="2">
         <v>725</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="2">
@@ -1227,7 +1228,7 @@
       <c r="B31" s="2">
         <v>430</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="2">
@@ -1238,7 +1239,7 @@
       <c r="B32" s="4">
         <v>23</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="4">
@@ -1252,7 +1253,7 @@
       <c r="B33" s="2">
         <v>468</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="2">
@@ -1266,7 +1267,7 @@
       <c r="B34" s="2">
         <v>872</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="2">
@@ -1277,7 +1278,7 @@
       <c r="B35" s="4">
         <v>94</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="4">
@@ -1302,7 +1303,7 @@
       <c r="B37" s="4">
         <v>145</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D37" s="4">
@@ -1316,7 +1317,7 @@
       <c r="B38" s="2">
         <v>897</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="2">
@@ -1330,7 +1331,7 @@
       <c r="B39" s="4">
         <v>114</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="4">
@@ -1344,7 +1345,7 @@
       <c r="B40" s="2">
         <v>1123</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="2">
@@ -1355,7 +1356,7 @@
       <c r="B41" s="2">
         <v>105</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="2">
@@ -1369,7 +1370,7 @@
       <c r="B42" s="2">
         <v>889</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="2">
@@ -1380,7 +1381,7 @@
       <c r="B43" s="2">
         <v>1008</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="2">
@@ -1391,7 +1392,7 @@
       <c r="B44" s="2">
         <v>173</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="2">
@@ -1402,7 +1403,7 @@
       <c r="B45" s="2">
         <v>951</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="2">
@@ -1413,7 +1414,7 @@
       <c r="B46" s="4">
         <v>450</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="4">
@@ -1424,7 +1425,7 @@
       <c r="B47" s="2">
         <v>102</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="2">
@@ -1435,7 +1436,7 @@
       <c r="B48" s="2">
         <v>987</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="2">
@@ -1446,7 +1447,7 @@
       <c r="B49" s="2">
         <v>841</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="2">
@@ -1460,7 +1461,7 @@
       <c r="B50" s="2">
         <v>662</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="2">
@@ -1471,7 +1472,7 @@
       <c r="B51" s="2">
         <v>103</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="2">
@@ -1482,7 +1483,7 @@
       <c r="B52" s="2">
         <v>113</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="2">
@@ -1493,7 +1494,7 @@
       <c r="B53" s="2">
         <v>547</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="2">
@@ -1504,7 +1505,7 @@
       <c r="B54" s="2">
         <v>200</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D54" s="2">
@@ -1518,7 +1519,7 @@
       <c r="B55" s="2">
         <v>222</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D55" s="2">
@@ -1529,7 +1530,7 @@
       <c r="B56" s="2">
         <v>236</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="2">
@@ -1543,7 +1544,7 @@
       <c r="B57" s="2">
         <v>99</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="2">
@@ -1557,7 +1558,7 @@
       <c r="B58" s="2">
         <v>828</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="2">
@@ -1568,7 +1569,7 @@
       <c r="B59" s="2">
         <v>129</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D59" s="2">
@@ -1579,39 +1580,57 @@
       <c r="B60" s="2">
         <v>297</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>86</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>979</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>87</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>233</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>88</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>1067</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>89</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>834</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1619,7 +1638,7 @@
       <c r="B65" s="2">
         <v>968</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1627,7 +1646,7 @@
       <c r="B66" s="2">
         <v>340</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1668,15 +1687,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C448EF-5F32-4448-9261-1A2832E99CBC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,6 +1723,14 @@
       </c>
       <c r="C3" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>297</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +1749,6 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{451445B0-8593-425E-BADC-CA4414FBFEEA}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/design-hashmap/" xr:uid="{DE935C4A-9F6E-42DB-883F-B6A96AE5ADB1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40253D9B-37CB-482F-86E4-7868C4F67B3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A65AC59-10F4-4CE2-AC9E-0CC7E922B5FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1140" yWindow="372" windowWidth="12648" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12024" yWindow="204" windowWidth="10800" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,35 @@
   </si>
   <si>
     <t>NOT UNDERSTAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kth-largest-element-in-an-array/</t>
+  </si>
+  <si>
+    <t>last-stone-weight/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pancake-sorting/</t>
+  </si>
+  <si>
+    <t>search-in-a-sorted-array-of-unknown-size/</t>
+  </si>
+  <si>
+    <t>queue-reconstruction-by-height/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityqueue: 4, quick sort: 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +491,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -827,11 +859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>841</v>
       </c>
@@ -1457,7 +1489,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>662</v>
       </c>
@@ -1468,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>103</v>
       </c>
@@ -1479,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>113</v>
       </c>
@@ -1490,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>547</v>
       </c>
@@ -1501,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>200</v>
       </c>
@@ -1515,7 +1547,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>222</v>
       </c>
@@ -1526,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>236</v>
       </c>
@@ -1540,7 +1572,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>99</v>
       </c>
@@ -1554,7 +1586,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>828</v>
       </c>
@@ -1565,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>129</v>
       </c>
@@ -1576,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>297</v>
       </c>
@@ -1590,7 +1622,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>979</v>
       </c>
@@ -1601,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>233</v>
       </c>
@@ -1615,7 +1647,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>1067</v>
       </c>
@@ -1626,7 +1658,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>8.18</v>
+      </c>
       <c r="B64" s="2">
         <v>834</v>
       </c>
@@ -1634,7 +1669,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
       <c r="B65" s="2">
         <v>968</v>
       </c>
@@ -1642,15 +1678,83 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
       <c r="B66" s="2">
         <v>340</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="4">
+        <v>215</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="4">
+        <v>4</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>1046</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>969</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>702</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>406</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A64:A66"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D41 D43:D1048576">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A65AC59-10F4-4CE2-AC9E-0CC7E922B5FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D18ED-7488-42F3-B62D-786C6F184AE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12024" yWindow="204" windowWidth="10800" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,12 +411,37 @@
     <t>priorityqueue: 4, quick sort: 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiggle-sort-ii/</t>
+  </si>
+  <si>
+    <t>find-peak-element/</t>
+  </si>
+  <si>
+    <t>find-in-mountain-array/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time-based-key-value-store/</t>
+  </si>
+  <si>
+    <t>8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index mapping, find median of array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +461,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -468,10 +501,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,12 +525,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -859,16 +900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
     <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="41" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" style="2" customWidth="1"/>
@@ -878,7 +919,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -892,7 +933,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="2">
@@ -912,6 +953,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="B3" s="4">
         <v>206</v>
       </c>
@@ -982,6 +1024,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="4">
         <v>24</v>
       </c>
@@ -1086,7 +1129,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="4">
         <v>82</v>
       </c>
@@ -1100,7 +1144,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="4">
         <v>76</v>
       </c>
@@ -1114,7 +1159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>92</v>
       </c>
@@ -1125,7 +1170,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
       <c r="B20" s="4">
         <v>25</v>
       </c>
@@ -1139,7 +1185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>707</v>
       </c>
@@ -1153,7 +1199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>56</v>
       </c>
@@ -1165,7 +1211,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>57</v>
       </c>
@@ -1179,7 +1225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>986</v>
       </c>
@@ -1190,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>61</v>
       </c>
@@ -1201,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>146</v>
       </c>
@@ -1212,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>706</v>
       </c>
@@ -1223,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>93</v>
       </c>
@@ -1234,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>929</v>
       </c>
@@ -1245,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>725</v>
       </c>
@@ -1256,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>430</v>
       </c>
@@ -1267,7 +1313,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
       <c r="B32" s="4">
         <v>23</v>
       </c>
@@ -1293,7 +1340,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2">
@@ -1307,6 +1354,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
       <c r="B35" s="4">
         <v>94</v>
       </c>
@@ -1321,6 +1369,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
       <c r="B36" s="4">
         <v>144</v>
       </c>
@@ -1332,6 +1381,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
       <c r="B37" s="4">
         <v>145</v>
       </c>
@@ -1360,6 +1410,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
       <c r="B39" s="4">
         <v>114</v>
       </c>
@@ -1443,6 +1494,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
       <c r="B46" s="4">
         <v>450</v>
       </c>
@@ -1659,7 +1711,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
+      <c r="A64" s="15">
         <v>8.18</v>
       </c>
       <c r="B64" s="2">
@@ -1670,7 +1722,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="2">
         <v>968</v>
       </c>
@@ -1679,7 +1731,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="2">
         <v>340</v>
       </c>
@@ -1691,7 +1743,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B67" s="4">
@@ -1749,6 +1801,58 @@
       </c>
       <c r="D71" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>15</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>324</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>162</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>1095</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="2">
+        <v>981</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1784,8 +1888,13 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C73" r:id="rId1" display="https://leetcode.com/problems/wiggle-sort-ii/" xr:uid="{EABE1722-6FBD-4470-90F6-FBC988522F16}"/>
+    <hyperlink ref="C74" r:id="rId2" display="https://leetcode.com/problems/find-peak-element/" xr:uid="{3ECAE6B3-C381-43E5-8C5E-B5EAF337E279}"/>
+    <hyperlink ref="C76" r:id="rId3" display="https://leetcode.com/problems/time-based-key-value-store/" xr:uid="{66774884-0AEA-4919-BFBF-61E58B6FD4D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D18ED-7488-42F3-B62D-786C6F184AE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3F9FA-BF0C-4890-A3B7-81599B7E2B4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12024" yWindow="204" windowWidth="10800" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11916" yWindow="336" windowWidth="10800" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,12 +436,31 @@
     <t>index mapping, find median of array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>binary search terminal condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-a-2d-matrix/</t>
+  </si>
+  <si>
+    <t>search-a-2d-matrix-ii/</t>
+  </si>
+  <si>
+    <t>super-ugly-number/</t>
+  </si>
+  <si>
+    <t>next-greater-element-ii/</t>
+  </si>
+  <si>
+    <t>online-election/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,14 +480,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -501,11 +512,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,7 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,9 +544,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -900,16 +908,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
     <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="41" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" style="2" customWidth="1"/>
@@ -919,7 +927,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -933,7 +941,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="2">
@@ -953,7 +961,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4">
         <v>206</v>
       </c>
@@ -1024,7 +1032,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4">
         <v>24</v>
       </c>
@@ -1130,7 +1138,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4">
         <v>82</v>
       </c>
@@ -1145,7 +1153,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4">
         <v>76</v>
       </c>
@@ -1171,7 +1179,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="4">
         <v>25</v>
       </c>
@@ -1314,7 +1322,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="4">
         <v>23</v>
       </c>
@@ -1340,7 +1348,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2">
@@ -1354,7 +1362,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="4">
         <v>94</v>
       </c>
@@ -1369,7 +1377,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="4">
         <v>144</v>
       </c>
@@ -1381,7 +1389,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="4">
         <v>145</v>
       </c>
@@ -1410,7 +1418,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="4">
         <v>114</v>
       </c>
@@ -1494,7 +1502,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="4">
         <v>450</v>
       </c>
@@ -1711,7 +1719,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="14">
         <v>8.18</v>
       </c>
       <c r="B64" s="2">
@@ -1722,7 +1730,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="2">
         <v>968</v>
       </c>
@@ -1731,7 +1739,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="2">
         <v>340</v>
       </c>
@@ -1743,7 +1751,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B67" s="4">
@@ -1818,7 +1826,7 @@
       <c r="B73" s="2">
         <v>324</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D73" s="2">
@@ -1832,8 +1840,11 @@
       <c r="B74" s="2">
         <v>162</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="9" t="s">
         <v>109</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,16 +1854,65 @@
       <c r="C75" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B76" s="2">
         <v>981</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="9" t="s">
         <v>111</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
+        <v>74</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="2">
+        <v>240</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="2">
+        <v>313</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>503</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>911</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1888,13 +1948,8 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C73" r:id="rId1" display="https://leetcode.com/problems/wiggle-sort-ii/" xr:uid="{EABE1722-6FBD-4470-90F6-FBC988522F16}"/>
-    <hyperlink ref="C74" r:id="rId2" display="https://leetcode.com/problems/find-peak-element/" xr:uid="{3ECAE6B3-C381-43E5-8C5E-B5EAF337E279}"/>
-    <hyperlink ref="C76" r:id="rId3" display="https://leetcode.com/problems/time-based-key-value-store/" xr:uid="{66774884-0AEA-4919-BFBF-61E58B6FD4D2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3F9FA-BF0C-4890-A3B7-81599B7E2B4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23135FF-AA7A-4DB5-9107-E6874BEE088D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11916" yWindow="336" windowWidth="10800" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,10 +429,6 @@
     <t>time-based-key-value-store/</t>
   </si>
   <si>
-    <t>8.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>index mapping, find median of array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,6 +450,14 @@
   </si>
   <si>
     <t>online-election/</t>
+  </si>
+  <si>
+    <t>next-greater-element-i/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -908,11 +912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,13 +1862,10 @@
         <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="B76" s="2">
         <v>981</v>
       </c>
@@ -1880,7 +1881,10 @@
         <v>74</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,7 +1892,10 @@
         <v>240</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,23 +1903,46 @@
         <v>313</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
+        <v>496</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
         <v>503</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="2">
+        <v>911</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="2">
-        <v>911</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>119</v>
+      <c r="D82" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23135FF-AA7A-4DB5-9107-E6874BEE088D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA41C75-76C2-442E-8A7B-80F2B9C304D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="336" windowWidth="10800" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11916" yWindow="156" windowWidth="10800" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,7 +456,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.21</t>
+    <t>3sum-closest/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next-permutation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sliding-window-median/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum-number-of-refueling-stops/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super-egg-drop/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koko-eating-bananas/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity-to-ship-packages-within-d-days/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest-repeating-substring/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim-in-rising-water/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kth-smallest-number-in-multiplication-table/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nth-magical-number/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest-increasing-subsequence/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split-array-largest-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path-with-maximum-minimum-value/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median-of-two-sorted-arrays/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconstruct-itinerary/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>largest-plus-sign/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online-majority-element-in-subarray/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum-window-substring/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum-of-subarray-minimums/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burst-balloons/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new comparator with parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityqueue: 2, dp: 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +650,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1920,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>503</v>
       </c>
@@ -1931,10 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>120</v>
-      </c>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>911</v>
       </c>
@@ -1943,6 +2046,207 @@
       </c>
       <c r="D82" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>16</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
+        <v>31</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
+        <v>480</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
+        <v>871</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
+        <v>887</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="2">
+        <v>875</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
+        <v>1062</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <v>778</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="2">
+        <v>668</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2">
+        <v>878</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
+        <v>300</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
+        <v>410</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>1102</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="2">
+        <v>4</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="2">
+        <v>332</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="2">
+        <v>764</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="2">
+        <v>1157</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="2">
+        <v>76</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="2">
+        <v>907</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="2">
+        <v>312</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyu\Documents\LeetCodeExplanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA41C75-76C2-442E-8A7B-80F2B9C304D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB91FF-A906-4D80-900E-2D2A0C2B4873}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="156" windowWidth="10800" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32775" yWindow="1320" windowWidth="16380" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
   <si>
     <t>no.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,7 +136,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -559,22 +559,52 @@
     <t>priorityqueue: 2, dp: 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>how to count</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>minesweeper/</t>
+  </si>
+  <si>
+    <t>number-of-distinct-islands/</t>
+  </si>
+  <si>
+    <t>word-search/</t>
+  </si>
+  <si>
+    <t>rotting-oranges/</t>
+  </si>
+  <si>
+    <t>shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>as-far-from-land-as-possible/</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>dfs and bfs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -582,7 +612,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -655,7 +685,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1018,14 +1048,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="12"/>
     <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
@@ -1036,7 +1066,7 @@
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
@@ -1050,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
@@ -1070,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4">
         <v>206</v>
@@ -1088,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="2">
         <v>234</v>
       </c>
@@ -1102,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="2">
         <v>1054</v>
       </c>
@@ -1116,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" s="2">
         <v>621</v>
       </c>
@@ -1130,7 +1160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" s="2">
         <v>876</v>
       </c>
@@ -1141,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="5" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="4">
         <v>24</v>
@@ -1156,7 +1186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="B9" s="2">
         <v>143</v>
       </c>
@@ -1167,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10" s="2">
         <v>160</v>
       </c>
@@ -1178,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" s="2">
         <v>142</v>
       </c>
@@ -1189,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="B12" s="2">
         <v>21</v>
       </c>
@@ -1200,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" s="2">
         <v>1146</v>
       </c>
@@ -1211,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" s="7">
         <v>148</v>
       </c>
@@ -1225,7 +1255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -1236,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" s="2">
         <v>445</v>
       </c>
@@ -1247,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1">
       <c r="A17" s="13"/>
       <c r="B17" s="4">
         <v>82</v>
@@ -1262,7 +1292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="5" customFormat="1">
       <c r="A18" s="13"/>
       <c r="B18" s="4">
         <v>76</v>
@@ -1277,7 +1307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19" s="2">
         <v>92</v>
       </c>
@@ -1288,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="5" customFormat="1">
       <c r="A20" s="13"/>
       <c r="B20" s="4">
         <v>25</v>
@@ -1303,7 +1333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" s="2">
         <v>707</v>
       </c>
@@ -1317,7 +1347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" s="2">
         <v>56</v>
       </c>
@@ -1329,7 +1359,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" s="2">
         <v>57</v>
       </c>
@@ -1343,7 +1373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" s="2">
         <v>986</v>
       </c>
@@ -1354,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25" s="2">
         <v>61</v>
       </c>
@@ -1365,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="B26" s="2">
         <v>146</v>
       </c>
@@ -1376,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" s="2">
         <v>706</v>
       </c>
@@ -1387,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" s="2">
         <v>93</v>
       </c>
@@ -1398,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" s="2">
         <v>929</v>
       </c>
@@ -1409,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" s="2">
         <v>725</v>
       </c>
@@ -1420,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" s="2">
         <v>430</v>
       </c>
@@ -1431,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="5" customFormat="1">
       <c r="A32" s="13"/>
       <c r="B32" s="4">
         <v>23</v>
@@ -1446,7 +1476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="B33" s="2">
         <v>468</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="12" t="s">
         <v>51</v>
       </c>
@@ -1471,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="5" customFormat="1">
       <c r="A35" s="13"/>
       <c r="B35" s="4">
         <v>94</v>
@@ -1486,7 +1516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="5" customFormat="1">
       <c r="A36" s="13"/>
       <c r="B36" s="4">
         <v>144</v>
@@ -1498,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="5" customFormat="1">
       <c r="A37" s="13"/>
       <c r="B37" s="4">
         <v>145</v>
@@ -1513,7 +1543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="B38" s="2">
         <v>897</v>
       </c>
@@ -1527,7 +1557,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="5" customFormat="1">
       <c r="A39" s="13"/>
       <c r="B39" s="4">
         <v>114</v>
@@ -1542,7 +1572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="B40" s="2">
         <v>1123</v>
       </c>
@@ -1553,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="B41" s="2">
         <v>105</v>
       </c>
@@ -1567,7 +1597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" s="2">
         <v>889</v>
       </c>
@@ -1578,7 +1608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="B43" s="2">
         <v>1008</v>
       </c>
@@ -1589,7 +1619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="B44" s="2">
         <v>173</v>
       </c>
@@ -1600,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="B45" s="2">
         <v>951</v>
       </c>
@@ -1611,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="5" customFormat="1">
       <c r="A46" s="13"/>
       <c r="B46" s="4">
         <v>450</v>
@@ -1623,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="B47" s="2">
         <v>102</v>
       </c>
@@ -1634,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" s="2">
         <v>987</v>
       </c>
@@ -1645,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="B49" s="2">
         <v>841</v>
       </c>
@@ -1659,7 +1689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="B50" s="2">
         <v>662</v>
       </c>
@@ -1670,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="B51" s="2">
         <v>103</v>
       </c>
@@ -1681,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="B52" s="2">
         <v>113</v>
       </c>
@@ -1692,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="B53" s="2">
         <v>547</v>
       </c>
@@ -1703,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="B54" s="2">
         <v>200</v>
       </c>
@@ -1717,7 +1747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="B55" s="2">
         <v>222</v>
       </c>
@@ -1728,7 +1758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="B56" s="2">
         <v>236</v>
       </c>
@@ -1742,7 +1772,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="B57" s="2">
         <v>99</v>
       </c>
@@ -1756,7 +1786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="B58" s="2">
         <v>828</v>
       </c>
@@ -1767,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="B59" s="2">
         <v>129</v>
       </c>
@@ -1778,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="B60" s="2">
         <v>297</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="B61" s="2">
         <v>979</v>
       </c>
@@ -1803,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="B62" s="2">
         <v>233</v>
       </c>
@@ -1817,7 +1847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="B63" s="2">
         <v>1067</v>
       </c>
@@ -1828,7 +1858,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="14">
         <v>8.18</v>
       </c>
@@ -1839,7 +1869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="14"/>
       <c r="B65" s="2">
         <v>968</v>
@@ -1848,7 +1878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="14"/>
       <c r="B66" s="2">
         <v>340</v>
@@ -1860,7 +1890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="5" customFormat="1">
       <c r="A67" s="13" t="s">
         <v>100</v>
       </c>
@@ -1877,7 +1907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="B68" s="2">
         <v>1046</v>
       </c>
@@ -1888,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="B69" s="2">
         <v>969</v>
       </c>
@@ -1899,7 +1929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="B70" s="2">
         <v>702</v>
       </c>
@@ -1910,7 +1940,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="B71" s="2">
         <v>406</v>
       </c>
@@ -1921,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="B72" s="2">
         <v>15</v>
       </c>
@@ -1932,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="B73" s="2">
         <v>324</v>
       </c>
@@ -1946,7 +1976,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="B74" s="2">
         <v>162</v>
       </c>
@@ -1957,7 +1987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="B75" s="2">
         <v>1095</v>
       </c>
@@ -1971,7 +2001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="B76" s="2">
         <v>981</v>
       </c>
@@ -1982,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="B77" s="2">
         <v>74</v>
       </c>
@@ -1993,7 +2023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="B78" s="2">
         <v>240</v>
       </c>
@@ -2004,7 +2034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="B79" s="2">
         <v>313</v>
       </c>
@@ -2015,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="B80" s="2">
         <v>496</v>
       </c>
@@ -2026,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="B81" s="2">
         <v>503</v>
       </c>
@@ -2037,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="B82" s="2">
         <v>911</v>
       </c>
@@ -2048,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="B83" s="2">
         <v>16</v>
       </c>
@@ -2059,7 +2089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="B84" s="2">
         <v>31</v>
       </c>
@@ -2070,21 +2100,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="2">
+    <row r="85" spans="1:5" s="5" customFormat="1">
+      <c r="A85" s="13"/>
+      <c r="B85" s="4">
         <v>480</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="4">
         <v>1</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="B86" s="2">
         <v>871</v>
       </c>
@@ -2098,7 +2129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="B87" s="2">
         <v>887</v>
       </c>
@@ -2112,47 +2143,65 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="B88" s="2">
         <v>875</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="B89" s="2">
         <v>1011</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="B90" s="2">
         <v>1062</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="B91" s="2">
         <v>778</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="B92" s="2">
         <v>668</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="12" t="s">
         <v>125</v>
       </c>
@@ -2162,16 +2211,23 @@
       <c r="C93" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="2">
+      <c r="D93" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="5" customFormat="1">
+      <c r="A94" s="13"/>
+      <c r="B94" s="4">
         <v>300</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="B95" s="2">
         <v>410</v>
       </c>
@@ -2179,7 +2235,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="B96" s="2">
         <v>1102</v>
       </c>
@@ -2187,7 +2243,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="B97" s="2">
         <v>4</v>
       </c>
@@ -2195,7 +2251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
         <v>137</v>
       </c>
@@ -2206,7 +2262,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="B99" s="2">
         <v>764</v>
       </c>
@@ -2214,7 +2270,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="B100" s="2">
         <v>1157</v>
       </c>
@@ -2222,7 +2278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="B101" s="2">
         <v>76</v>
       </c>
@@ -2230,7 +2286,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="B102" s="2">
         <v>907</v>
       </c>
@@ -2238,7 +2294,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
         <v>138</v>
       </c>
@@ -2247,6 +2303,76 @@
       </c>
       <c r="C103" s="8" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" s="2">
+        <v>529</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" s="2">
+        <v>694</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="5" customFormat="1">
+      <c r="A106" s="13"/>
+      <c r="B106" s="4">
+        <v>79</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" s="2">
+        <v>994</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" s="2">
+        <v>1091</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1162</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2295,17 +2421,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>146</v>
       </c>
@@ -2316,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>706</v>
       </c>
@@ -2327,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>297</v>
       </c>
